--- a/Lista de componentes.xlsx
+++ b/Lista de componentes.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Desktop\video Slider\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\50460310n\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69F5367-E0E4-483D-8A11-B32A435FB200}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15480" yWindow="7305" windowWidth="38700" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15480" yWindow="7305" windowWidth="38700" windowHeight="15435"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>MATERIAL</t>
   </si>
@@ -39,9 +38,6 @@
     <t>NOTAS</t>
   </si>
   <si>
-    <t>PERGIL GSLOT 1 METRO</t>
-  </si>
-  <si>
     <t>MOTOR PASO A PASO</t>
   </si>
   <si>
@@ -130,12 +126,63 @@
   </si>
   <si>
     <t>TORNILLO M4 X ??</t>
+  </si>
+  <si>
+    <t>https://www.makergal.es/product-page/perfil-gslot-2040-anodizado-natural</t>
+  </si>
+  <si>
+    <t>PERGIL GSLOT 2040 1 METRO</t>
+  </si>
+  <si>
+    <t>https://www.makergal.es/product-page/ruedas-gslot</t>
+  </si>
+  <si>
+    <t>https://www.makergal.es/product-page/tuerca-excentrica</t>
+  </si>
+  <si>
+    <t>https://www.makergal.es/product-page/polea-gt2-sincr%C3%B3nica-eje-3mm</t>
+  </si>
+  <si>
+    <t>https://amzn.to/3o6tNGl</t>
+  </si>
+  <si>
+    <t>https://amzn.to/3sH38U2</t>
+  </si>
+  <si>
+    <t>https://amzn.to/3iyzETC</t>
+  </si>
+  <si>
+    <t>https://amzn.to/398kDFf</t>
+  </si>
+  <si>
+    <t>https://amzn.to/3phdCHq</t>
+  </si>
+  <si>
+    <t>https://github.com/Srferrete/SFRSlider/tree/main/Stls</t>
+  </si>
+  <si>
+    <t>https://amzn.to/3634zCq</t>
+  </si>
+  <si>
+    <t>https://amzn.to/3sKe3MH</t>
+  </si>
+  <si>
+    <t>https://amzn.to/2KyGbBc</t>
+  </si>
+  <si>
+    <t>https://amzn.to/3iENUdB</t>
+  </si>
+  <si>
+    <t>https://amzn.to/3sLD7Tp</t>
+  </si>
+  <si>
+    <t>https://amzn.to/3p4A5aP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -476,18 +523,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.42578125" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="3" max="3" width="95.28515625" customWidth="1"/>
     <col min="4" max="4" width="51.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -507,127 +554,151 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="2">
         <v>1</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="2">
         <v>1</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="2">
         <v>4</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="2">
         <v>2</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="2">
         <v>2</v>
@@ -637,7 +708,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="2">
         <v>4</v>
@@ -647,25 +718,29 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="2">
         <v>1</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="2">
         <v>1</v>
@@ -675,27 +750,31 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="2">
         <v>1</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="2">
         <v>1</v>
       </c>
-      <c r="C20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" s="2">
         <v>4</v>
@@ -705,7 +784,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" s="2">
         <v>4</v>
@@ -715,7 +794,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" s="2">
         <v>4</v>
@@ -725,7 +804,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" s="2">
         <v>4</v>
@@ -735,7 +814,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" s="2">
         <v>4</v>
@@ -745,7 +824,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" s="2">
         <v>1</v>
@@ -755,7 +834,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" s="2">
         <v>4</v>
@@ -765,7 +844,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" s="2">
         <v>1</v>
@@ -775,7 +854,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" s="2">
         <v>7</v>
@@ -785,7 +864,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" s="2">
         <v>5</v>
@@ -795,7 +874,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" s="2">
         <v>2</v>
